--- a/pred_ohlcv/54_21/2020-01-22 ETC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-22 ETC ohlcv.xlsx
@@ -470,7 +470,7 @@
         <v>-1594.104358965818</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-4662.615558965817</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-3833.284458965818</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-3833.284458965818</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-4475.255358965817</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-5814.093458965817</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-6421.822158965817</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-5028.494258965817</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-4441.034058965817</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-6207.176058965817</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-8159.803300412542</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-8159.803300412542</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-9239.014100412542</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-10352.35700041254</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-10067.73720041254</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-10067.73720041254</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-10067.73720041254</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-11137.64670041254</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-13538.01180041254</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-11734.00860041254</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-10858.90980041254</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-7928.371100412541</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-6184.35790041254</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-4810.44310041254</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-7150.85670041254</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-7260.05670041254</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-4691.138700412539</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-4970.638600412539</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-5353.569000412539</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-5886.573800412539</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-5599.759100412539</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-6180.060600412538</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-6717.405100412539</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-976.0041205755243</v>
       </c>
       <c r="H253">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-882.6131564978544</v>
       </c>
       <c r="H255">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-882.6131564978544</v>
       </c>
       <c r="H256">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-882.6131564978544</v>
       </c>
       <c r="H257">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-912.4854564978544</v>
       </c>
       <c r="H258">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-912.4854564978544</v>
       </c>
       <c r="H259">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-745.4728564978544</v>
       </c>
       <c r="H260">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>167.4722435021456</v>
       </c>
       <c r="H261">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>432.2963435021456</v>
       </c>
       <c r="H262">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>432.2963435021456</v>
       </c>
       <c r="H263">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>432.2963435021456</v>
       </c>
       <c r="H264">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>285.0693305050554</v>
       </c>
       <c r="H265">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-920.1588694949446</v>
       </c>
       <c r="H266">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-931.5735694949446</v>
       </c>
       <c r="H267">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-880.1511824920349</v>
       </c>
       <c r="H268">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-880.1511824920349</v>
       </c>
       <c r="H269">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-959.1304954891251</v>
       </c>
       <c r="H270">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-1254.040095489125</v>
       </c>
       <c r="H271">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-1404.366095489125</v>
       </c>
       <c r="H272">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-1639.953995489125</v>
       </c>
       <c r="H273">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-1639.953995489125</v>
       </c>
       <c r="H274">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>-1639.953995489125</v>
       </c>
       <c r="H275">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-1212.274495489125</v>
       </c>
       <c r="H276">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-2083.831195489125</v>
       </c>
       <c r="H277">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-2210.517695489125</v>
       </c>
       <c r="H278">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>-14373.06100153325</v>
       </c>
       <c r="H436">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>-14323.06100153325</v>
       </c>
       <c r="H437">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>-14114.04260153325</v>
       </c>
       <c r="H438">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>-14214.78500153325</v>
       </c>
       <c r="H439">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>-14228.93230153325</v>
       </c>
       <c r="H440">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>-14196.79360153325</v>
       </c>
       <c r="H441">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>-14143.69800153325</v>
       </c>
       <c r="H442">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>-14043.69800153325</v>
       </c>
       <c r="H443">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>-12093.47090153325</v>
       </c>
       <c r="H444">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>-11347.48480153325</v>
       </c>
       <c r="H445">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>-11347.48480153325</v>
       </c>
       <c r="H446">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>-11817.89490153325</v>
       </c>
       <c r="H447">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>-13179.76105031373</v>
       </c>
       <c r="H457">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>-13449.81065031374</v>
       </c>
       <c r="H458">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>-13382.18195031374</v>
       </c>
       <c r="H459">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>-13382.18195031374</v>
       </c>
       <c r="H460">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -13938,7 +13938,7 @@
         <v>-36280.55306432769</v>
       </c>
       <c r="H521">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -16798,7 +16798,7 @@
         <v>-47161.63554888765</v>
       </c>
       <c r="H631">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="632" spans="1:8">
@@ -16824,7 +16824,7 @@
         <v>-47131.25304888765</v>
       </c>
       <c r="H632">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="633" spans="1:8">
@@ -16850,7 +16850,7 @@
         <v>-47158.94614888765</v>
       </c>
       <c r="H633">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -16876,7 +16876,7 @@
         <v>-47661.06224888765</v>
       </c>
       <c r="H634">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="635" spans="1:8">
@@ -16902,7 +16902,7 @@
         <v>-47541.06224888765</v>
       </c>
       <c r="H635">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="636" spans="1:8">
@@ -16928,7 +16928,7 @@
         <v>-47490.76934888765</v>
       </c>
       <c r="H636">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="637" spans="1:8">
@@ -16954,7 +16954,7 @@
         <v>-47389.20944888765</v>
       </c>
       <c r="H637">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="638" spans="1:8">
@@ -17006,7 +17006,7 @@
         <v>-47520.80944888764</v>
       </c>
       <c r="H639">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="640" spans="1:8">
@@ -17032,7 +17032,7 @@
         <v>-47520.80944888764</v>
       </c>
       <c r="H640">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="641" spans="1:8">
@@ -17058,7 +17058,7 @@
         <v>-47520.80944888764</v>
       </c>
       <c r="H641">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="642" spans="1:8">
@@ -17110,7 +17110,7 @@
         <v>-47716.52734888765</v>
       </c>
       <c r="H643">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="644" spans="1:8">
@@ -17136,7 +17136,7 @@
         <v>-47704.73384888765</v>
       </c>
       <c r="H644">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="645" spans="1:8">
@@ -17162,7 +17162,7 @@
         <v>-47704.73384888765</v>
       </c>
       <c r="H645">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="646" spans="1:8">
@@ -17188,7 +17188,7 @@
         <v>-47730.29404888765</v>
       </c>
       <c r="H646">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="647" spans="1:8">
@@ -17214,7 +17214,7 @@
         <v>-47627.66884888765</v>
       </c>
       <c r="H647">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="648" spans="1:8">
@@ -17240,7 +17240,7 @@
         <v>-47910.40314888764</v>
       </c>
       <c r="H648">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="649" spans="1:8">
@@ -17266,7 +17266,7 @@
         <v>-47387.04524888764</v>
       </c>
       <c r="H649">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="650" spans="1:8">
@@ -17292,7 +17292,7 @@
         <v>-47387.04524888764</v>
       </c>
       <c r="H650">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="651" spans="1:8">
@@ -17318,7 +17318,7 @@
         <v>-47345.71294888764</v>
       </c>
       <c r="H651">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="652" spans="1:8">
@@ -17344,7 +17344,7 @@
         <v>-47281.61584888764</v>
       </c>
       <c r="H652">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="653" spans="1:8">
@@ -17370,7 +17370,7 @@
         <v>-47351.33674888764</v>
       </c>
       <c r="H653">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="654" spans="1:8">
@@ -17396,7 +17396,7 @@
         <v>-47351.33674888764</v>
       </c>
       <c r="H654">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="655" spans="1:8">
@@ -17422,7 +17422,7 @@
         <v>-47224.11424888764</v>
       </c>
       <c r="H655">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="656" spans="1:8">
@@ -17448,7 +17448,7 @@
         <v>-47235.91424888764</v>
       </c>
       <c r="H656">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="657" spans="1:8">
@@ -17474,7 +17474,7 @@
         <v>-47235.91424888764</v>
       </c>
       <c r="H657">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="658" spans="1:8">
@@ -17500,7 +17500,7 @@
         <v>-47241.81424888764</v>
       </c>
       <c r="H658">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="659" spans="1:8">
@@ -17526,7 +17526,7 @@
         <v>-47695.40914888764</v>
       </c>
       <c r="H659">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="660" spans="1:8">
@@ -17552,7 +17552,7 @@
         <v>-47691.62374888764</v>
       </c>
       <c r="H660">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="661" spans="1:8">
@@ -18098,7 +18098,7 @@
         <v>-46251.28724888762</v>
       </c>
       <c r="H681">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="682" spans="1:8">
@@ -18124,7 +18124,7 @@
         <v>-46253.18724888763</v>
       </c>
       <c r="H682">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="683" spans="1:8">
@@ -18150,7 +18150,7 @@
         <v>-45966.86834888763</v>
       </c>
       <c r="H683">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="684" spans="1:8">
@@ -18228,7 +18228,7 @@
         <v>-46615.67894888762</v>
       </c>
       <c r="H686">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="687" spans="1:8">
@@ -18254,7 +18254,7 @@
         <v>-46615.67894888762</v>
       </c>
       <c r="H687">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="688" spans="1:8">
@@ -18280,7 +18280,7 @@
         <v>-46564.42224888763</v>
       </c>
       <c r="H688">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="689" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-22 ETC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-22 ETC ohlcv.xlsx
@@ -470,7 +470,7 @@
         <v>-1594.104358965818</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-4662.615558965817</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-3833.284458965818</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-3833.284458965818</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-4475.255358965817</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-5814.093458965817</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-6421.822158965817</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-5028.494258965817</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-4441.034058965817</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-6207.176058965817</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-8159.803300412542</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-8159.803300412542</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-9239.014100412542</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-10352.35700041254</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-10067.73720041254</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-10067.73720041254</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-10067.73720041254</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-11137.64670041254</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-13538.01180041254</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-11734.00860041254</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-10858.90980041254</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-7928.371100412541</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-6184.35790041254</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-4810.44310041254</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-7150.85670041254</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-7260.05670041254</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-4691.138700412539</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-4970.638600412539</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-5353.569000412539</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-5886.573800412539</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-5599.759100412539</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-6180.060600412538</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-6717.405100412539</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-882.6131564978544</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-882.6131564978544</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-912.4854564978544</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-912.4854564978544</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-745.4728564978544</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>167.4722435021456</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>432.2963435021456</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>432.2963435021456</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>432.2963435021456</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>285.0693305050554</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-920.1588694949446</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-931.5735694949446</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-880.1511824920349</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-880.1511824920349</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-959.1304954891251</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-1254.040095489125</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-1404.366095489125</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-1639.953995489125</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-1639.953995489125</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>-1639.953995489125</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-1212.274495489125</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-2083.831195489125</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-2210.517695489125</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>-14373.06100153325</v>
       </c>
       <c r="H436">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>-14323.06100153325</v>
       </c>
       <c r="H437">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>-14114.04260153325</v>
       </c>
       <c r="H438">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>-14214.78500153325</v>
       </c>
       <c r="H439">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>-14228.93230153325</v>
       </c>
       <c r="H440">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>-14196.79360153325</v>
       </c>
       <c r="H441">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>-14143.69800153325</v>
       </c>
       <c r="H442">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>-14043.69800153325</v>
       </c>
       <c r="H443">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>-12093.47090153325</v>
       </c>
       <c r="H444">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>-11347.48480153325</v>
       </c>
       <c r="H445">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>-11347.48480153325</v>
       </c>
       <c r="H446">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>-11817.89490153325</v>
       </c>
       <c r="H447">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>-13179.76105031373</v>
       </c>
       <c r="H457">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>-13449.81065031374</v>
       </c>
       <c r="H458">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>-13382.18195031374</v>
       </c>
       <c r="H459">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>-13382.18195031374</v>
       </c>
       <c r="H460">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -13938,7 +13938,7 @@
         <v>-36280.55306432769</v>
       </c>
       <c r="H521">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -16772,7 +16772,7 @@
         <v>-47061.63554888765</v>
       </c>
       <c r="H630">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="631" spans="1:8">
@@ -16798,7 +16798,7 @@
         <v>-47161.63554888765</v>
       </c>
       <c r="H631">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="632" spans="1:8">
@@ -16824,7 +16824,7 @@
         <v>-47131.25304888765</v>
       </c>
       <c r="H632">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="633" spans="1:8">
@@ -16850,7 +16850,7 @@
         <v>-47158.94614888765</v>
       </c>
       <c r="H633">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -16876,7 +16876,7 @@
         <v>-47661.06224888765</v>
       </c>
       <c r="H634">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="635" spans="1:8">
@@ -16902,7 +16902,7 @@
         <v>-47541.06224888765</v>
       </c>
       <c r="H635">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="636" spans="1:8">
@@ -16928,7 +16928,7 @@
         <v>-47490.76934888765</v>
       </c>
       <c r="H636">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="637" spans="1:8">
@@ -16954,7 +16954,7 @@
         <v>-47389.20944888765</v>
       </c>
       <c r="H637">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="638" spans="1:8">
@@ -16980,7 +16980,7 @@
         <v>-47520.80944888764</v>
       </c>
       <c r="H638">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="639" spans="1:8">
@@ -17006,7 +17006,7 @@
         <v>-47520.80944888764</v>
       </c>
       <c r="H639">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="640" spans="1:8">
@@ -17032,7 +17032,7 @@
         <v>-47520.80944888764</v>
       </c>
       <c r="H640">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="641" spans="1:8">
@@ -17058,7 +17058,7 @@
         <v>-47520.80944888764</v>
       </c>
       <c r="H641">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="642" spans="1:8">
@@ -17084,7 +17084,7 @@
         <v>-47520.80944888764</v>
       </c>
       <c r="H642">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="643" spans="1:8">
@@ -17110,7 +17110,7 @@
         <v>-47716.52734888765</v>
       </c>
       <c r="H643">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="644" spans="1:8">
@@ -17136,7 +17136,7 @@
         <v>-47704.73384888765</v>
       </c>
       <c r="H644">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="645" spans="1:8">
@@ -17162,7 +17162,7 @@
         <v>-47704.73384888765</v>
       </c>
       <c r="H645">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="646" spans="1:8">
@@ -17188,7 +17188,7 @@
         <v>-47730.29404888765</v>
       </c>
       <c r="H646">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="647" spans="1:8">
@@ -17214,7 +17214,7 @@
         <v>-47627.66884888765</v>
       </c>
       <c r="H647">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="648" spans="1:8">
@@ -17240,7 +17240,7 @@
         <v>-47910.40314888764</v>
       </c>
       <c r="H648">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="649" spans="1:8">
@@ -17266,7 +17266,7 @@
         <v>-47387.04524888764</v>
       </c>
       <c r="H649">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="650" spans="1:8">
@@ -17292,7 +17292,7 @@
         <v>-47387.04524888764</v>
       </c>
       <c r="H650">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="651" spans="1:8">
@@ -17318,7 +17318,7 @@
         <v>-47345.71294888764</v>
       </c>
       <c r="H651">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="652" spans="1:8">
@@ -17344,7 +17344,7 @@
         <v>-47281.61584888764</v>
       </c>
       <c r="H652">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="653" spans="1:8">
@@ -17370,7 +17370,7 @@
         <v>-47351.33674888764</v>
       </c>
       <c r="H653">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="654" spans="1:8">
@@ -17396,7 +17396,7 @@
         <v>-47351.33674888764</v>
       </c>
       <c r="H654">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="655" spans="1:8">
@@ -17422,7 +17422,7 @@
         <v>-47224.11424888764</v>
       </c>
       <c r="H655">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="656" spans="1:8">
@@ -17448,7 +17448,7 @@
         <v>-47235.91424888764</v>
       </c>
       <c r="H656">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="657" spans="1:8">
@@ -17474,7 +17474,7 @@
         <v>-47235.91424888764</v>
       </c>
       <c r="H657">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="658" spans="1:8">
@@ -17500,7 +17500,7 @@
         <v>-47241.81424888764</v>
       </c>
       <c r="H658">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="659" spans="1:8">
@@ -17526,7 +17526,7 @@
         <v>-47695.40914888764</v>
       </c>
       <c r="H659">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="660" spans="1:8">
@@ -17552,7 +17552,7 @@
         <v>-47691.62374888764</v>
       </c>
       <c r="H660">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="661" spans="1:8">
@@ -18098,7 +18098,7 @@
         <v>-46251.28724888762</v>
       </c>
       <c r="H681">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="682" spans="1:8">
@@ -18124,7 +18124,7 @@
         <v>-46253.18724888763</v>
       </c>
       <c r="H682">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="683" spans="1:8">
@@ -18150,7 +18150,7 @@
         <v>-45966.86834888763</v>
       </c>
       <c r="H683">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="684" spans="1:8">
@@ -18176,7 +18176,7 @@
         <v>-46431.46724888762</v>
       </c>
       <c r="H684">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="685" spans="1:8">
@@ -18202,7 +18202,7 @@
         <v>-46451.16724888762</v>
       </c>
       <c r="H685">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="686" spans="1:8">
@@ -18228,7 +18228,7 @@
         <v>-46615.67894888762</v>
       </c>
       <c r="H686">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="687" spans="1:8">
@@ -18254,7 +18254,7 @@
         <v>-46615.67894888762</v>
       </c>
       <c r="H687">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="688" spans="1:8">
@@ -18280,7 +18280,7 @@
         <v>-46564.42224888763</v>
       </c>
       <c r="H688">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="689" spans="1:8">
@@ -18306,7 +18306,7 @@
         <v>-46403.17214888763</v>
       </c>
       <c r="H689">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="690" spans="1:8">
@@ -18332,7 +18332,7 @@
         <v>-45649.94654888763</v>
       </c>
       <c r="H690">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="691" spans="1:8">
@@ -18358,7 +18358,7 @@
         <v>-45649.94654888763</v>
       </c>
       <c r="H691">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="692" spans="1:8">
@@ -18384,7 +18384,7 @@
         <v>-45710.04654888763</v>
       </c>
       <c r="H692">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="693" spans="1:8">
@@ -18410,7 +18410,7 @@
         <v>-44211.26821382787</v>
       </c>
       <c r="H693">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="694" spans="1:8">
@@ -18436,7 +18436,7 @@
         <v>-42126.93981382787</v>
       </c>
       <c r="H694">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="695" spans="1:8">
